--- a/CashFlow/DG_cashflow.xlsx
+++ b/CashFlow/DG_cashflow.xlsx
@@ -76,7 +76,7 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -618,19 +618,19 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>18771000000.0</v>
+        <v>-575827000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>18201000000.0</v>
+        <v>-530038000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>13095079000.0</v>
+        <v>26259000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>8397246000.0</v>
+        <v>3371000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4275994000.0</v>
+        <v>-578783000.0</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>-534235000.0</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>745596000.0</v>
+        <v>13740000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>923019000.0</v>
+        <v>12987000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>614423000.0</v>
+        <v>9266292000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>269924000.0</v>
+        <v>5971585000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>112119000.0</v>
+        <v>2969906000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>90755000.0</v>
